--- a/test1.xlsx
+++ b/test1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>a</t>
   </si>
@@ -43,8 +43,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -56,6 +56,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -63,61 +70,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,10 +84,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,6 +145,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -154,6 +169,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -162,38 +191,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,187 +208,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,28 +402,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,26 +441,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,145 +507,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>a</t>
   </si>
@@ -33,7 +33,7 @@
     <t>d</t>
   </si>
   <si>
-    <t>e</t>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -41,10 +41,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -56,6 +56,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -63,14 +84,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,16 +106,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,36 +140,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -145,9 +162,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,45 +171,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,109 +208,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,73 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,30 +399,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,26 +428,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,6 +452,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -499,6 +475,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -507,10 +507,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,133 +519,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,13 +1001,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1046,7 +1046,7 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <f>SUM(A2:E2)</f>
+        <f t="shared" ref="F2:F9" si="0">SUM(A2:E2)</f>
         <v>13</v>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
         <v>8</v>
       </c>
       <c r="F3">
-        <f>SUM(A3:E3)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <f>SUM(A4:E4)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -1100,8 +1100,92 @@
         <v>16</v>
       </c>
       <c r="F5">
-        <f>SUM(A5:E5)</f>
+        <f t="shared" si="0"/>
         <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>a</t>
   </si>
@@ -35,16 +35,19 @@
   <si>
     <t>f</t>
   </si>
+  <si>
+    <t>g</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -56,7 +59,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,21 +104,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,7 +112,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,6 +126,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -114,35 +142,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,14 +164,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -171,7 +181,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,21 +196,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,91 +211,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,91 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,37 +405,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,6 +425,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,17 +456,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +491,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -507,10 +510,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,133 +522,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,15 +1004,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1028,13 +1031,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1047,10 +1053,14 @@
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F9" si="0">SUM(A2:E2)</f>
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G9" si="1">D2+E2</f>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1070,8 +1080,12 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1085,8 +1099,12 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>12</v>
       </c>
@@ -1103,8 +1121,12 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>25</v>
       </c>
@@ -1124,8 +1146,12 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>17</v>
       </c>
@@ -1145,8 +1171,12 @@
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>21</v>
       </c>
@@ -1166,8 +1196,12 @@
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>23</v>
       </c>
@@ -1186,6 +1220,10 @@
       <c r="F9">
         <f t="shared" si="0"/>
         <v>95</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>a</t>
   </si>
@@ -37,6 +37,54 @@
   </si>
   <si>
     <t>g</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>d4</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>d5</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>d7</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>d6</t>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>d8</t>
+  </si>
+  <si>
+    <t>c9</t>
+  </si>
+  <si>
+    <t>d9</t>
+  </si>
+  <si>
+    <t>c10</t>
+  </si>
+  <si>
+    <t>d10</t>
   </si>
 </sst>
 </file>
@@ -44,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -59,52 +107,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,7 +166,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,6 +180,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -143,35 +220,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -179,24 +234,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,49 +259,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,127 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,24 +455,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,30 +469,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,13 +503,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,133 +570,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,7 +1055,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1045,19 +1093,19 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F9" si="0">SUM(A2:E2)</f>
-        <v>12</v>
-      </c>
-      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="e">
         <f t="shared" ref="G2:G9" si="1">D2+E2</f>
-        <v>7</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1070,19 +1118,19 @@
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="G3" t="e">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1092,16 +1140,19 @@
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
         <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="G4" t="e">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1114,16 +1165,19 @@
       <c r="C5">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>16</v>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="G5">
+        <v>31</v>
+      </c>
+      <c r="G5" t="e">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1136,19 +1190,19 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="G6">
+        <v>29</v>
+      </c>
+      <c r="G6" t="e">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1161,19 +1215,19 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="G7">
+        <v>38</v>
+      </c>
+      <c r="G7" t="e">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1186,19 +1240,19 @@
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>24</v>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="G8">
+        <v>46</v>
+      </c>
+      <c r="G8" t="e">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1211,19 +1265,19 @@
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>24</v>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="G9">
+        <v>48</v>
+      </c>
+      <c r="G9" t="e">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
